--- a/Fortran code/Fortran_bcs_pin_ettore/Record/record 1-17-2019_mixed energy recheck.xlsx
+++ b/Fortran code/Fortran_bcs_pin_ettore/Record/record 1-17-2019_mixed energy recheck.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6501B-A9FE-4AA6-AD03-17E43CCB72A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AADFF0-B44F-4E06-A0E2-551B1F98083A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -394,7 +399,7 @@
   <dimension ref="A2:F4113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3085" sqref="J3085"/>
+      <selection activeCell="R2057" sqref="R2057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -52744,6 +52749,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>